--- a/tests/test_storage/test_model.xlsx
+++ b/tests/test_storage/test_model.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WWW\www-domains\dev.loc\fast-excel-laravel\tests\test_storage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\OSPanel\domains\dev.loc\fast-excel-laravel\tests\test_storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52308FD8-1EE9-4F02-99E1-07DEBB450B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="1830" windowWidth="17280" windowHeight="8903"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +96,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,58 +373,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="1">
         <v>45</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>4573</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1">
         <v>102128</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>982630</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>7239</v>
       </c>
     </row>
